--- a/Parking Cords.xlsx
+++ b/Parking Cords.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\No Taps\main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CDE9F-B7EC-46CE-91D0-E2A893FFEE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="681">
   <si>
     <t>Lot Numbers</t>
   </si>
@@ -25,69 +34,9 @@
     <t>Hahn Student Services</t>
   </si>
   <si>
-    <t>36.99580238648101, -122.05684929280802</t>
-  </si>
-  <si>
-    <t>36.99556860797221, -122.05704902147268</t>
-  </si>
-  <si>
-    <t>36.9954585943076, -122.05736238886033</t>
-  </si>
-  <si>
-    <t>36.99535683152617, -122.05745192239965</t>
-  </si>
-  <si>
-    <t>36.994872768863516, -122.05754489953667</t>
-  </si>
-  <si>
-    <t>36.99483701411282, -122.05744503520432</t>
-  </si>
-  <si>
-    <t>36.99472424901977, -122.05739338123934</t>
-  </si>
-  <si>
     <t>36.99089213960745, -122.05089511562932</t>
   </si>
   <si>
-    <t>36.99437770158967, -122.057448478802</t>
-  </si>
-  <si>
-    <t>36.99425118388044, -122.05738305044632</t>
-  </si>
-  <si>
-    <t>36.99418517455726, -122.05725908093034</t>
-  </si>
-  <si>
-    <t>36.99417967377776, -122.05715577300035</t>
-  </si>
-  <si>
-    <t>36.99419617611512, -122.05709378824233</t>
-  </si>
-  <si>
-    <t>36.99424018233055, -122.05702491628901</t>
-  </si>
-  <si>
-    <t>36.99451797097779, -122.05683551841736</t>
-  </si>
-  <si>
-    <t>36.994641737870104, -122.05700081110535</t>
-  </si>
-  <si>
-    <t>6.99482601264768, -122.0570180290937</t>
-  </si>
-  <si>
-    <t>36.995048792006436, -122.05692505195668</t>
-  </si>
-  <si>
-    <t>36.99522481474191, -122.056911277566</t>
-  </si>
-  <si>
-    <t>36.99533207839658, -122.05692160835902</t>
-  </si>
-  <si>
-    <t>36.99570062415962, -122.05656691779936</t>
-  </si>
-  <si>
     <t>Quarry Plaza</t>
   </si>
   <si>
@@ -211,24 +160,6 @@
     <t>Cowell/Stevenson</t>
   </si>
   <si>
-    <t>36.99800993111986, -122.05367789939842</t>
-  </si>
-  <si>
-    <t>36.99809570329836, -122.05352551367302</t>
-  </si>
-  <si>
-    <t>36.99809222604976, -122.05340505638532</t>
-  </si>
-  <si>
-    <t>36.99789749987449, -122.0529595095501</t>
-  </si>
-  <si>
-    <t>36.997724795885105, -122.05306980778946</t>
-  </si>
-  <si>
-    <t>6.997860409117905, -122.05343988740826</t>
-  </si>
-  <si>
     <t>Stevenson Service Road</t>
   </si>
   <si>
@@ -1594,33 +1525,9 @@
     <t>Crown-Merrill Apartments</t>
   </si>
   <si>
-    <t>37.002231, -122.05317</t>
-  </si>
-  <si>
-    <t>37.002253, -122.05575</t>
-  </si>
-  <si>
-    <t>37.001276, -122.05523</t>
-  </si>
-  <si>
-    <t>37.000938, -122.052392</t>
-  </si>
-  <si>
     <t>Fire House</t>
   </si>
   <si>
-    <t>37.001597, -122.055563</t>
-  </si>
-  <si>
-    <t>37.00164, -122.055638</t>
-  </si>
-  <si>
-    <t>37.001713, -122.05559</t>
-  </si>
-  <si>
-    <t>37.001649, -122.055493</t>
-  </si>
-  <si>
     <t>Graduate Student Apartments</t>
   </si>
   <si>
@@ -1663,18 +1570,6 @@
     <t>36.997112, -122.064006</t>
   </si>
   <si>
-    <t>36.990261, -122.065036</t>
-  </si>
-  <si>
-    <t>36.990239, -122.064693</t>
-  </si>
-  <si>
-    <t>36.990128, -122.065058</t>
-  </si>
-  <si>
-    <t>36.990239, -122.065036</t>
-  </si>
-  <si>
     <t>36.990029, -122.065074</t>
   </si>
   <si>
@@ -1702,18 +1597,6 @@
     <t>Cowell Provost</t>
   </si>
   <si>
-    <t>36.995976, -122.054983</t>
-  </si>
-  <si>
-    <t>36.995929, -122.054291</t>
-  </si>
-  <si>
-    <t>36.995621, -122.055021</t>
-  </si>
-  <si>
-    <t>36.995526, -122.054254</t>
-  </si>
-  <si>
     <t>John R. Lewis College</t>
   </si>
   <si>
@@ -1780,30 +1663,6 @@
     <t>College Nine</t>
   </si>
   <si>
-    <t>37.00184031944523, -122.05772625117034</t>
-  </si>
-  <si>
-    <t>37.00182478238358, -122.05765954838957</t>
-  </si>
-  <si>
-    <t>37.00165720387414, -122.05772903045289</t>
-  </si>
-  <si>
-    <t>37.00164832553221, -122.05795415233804</t>
-  </si>
-  <si>
-    <t>37.003309039404826, -122.05923450247776</t>
-  </si>
-  <si>
-    <t>37.00329997833262, -122.05867286633432</t>
-  </si>
-  <si>
-    <t>37.003249009781264, -122.05869272215756</t>
-  </si>
-  <si>
-    <t>37.00327506037846, -122.05921039183522</t>
-  </si>
-  <si>
     <t>Agroecology</t>
   </si>
   <si>
@@ -1960,58 +1819,293 @@
     <t>Westside Research Park</t>
   </si>
   <si>
-    <t>36.955516906312255, -122.05871966375828</t>
-  </si>
-  <si>
-    <t>36.95552556166291, -122.0577304013502</t>
-  </si>
-  <si>
-    <t>36.9550639415889, -122.05773762224369</t>
-  </si>
-  <si>
-    <t>36.9550639415889, -122.05882075626712</t>
-  </si>
-  <si>
-    <t>36.95755696451903, -122.05853790058025</t>
-  </si>
-  <si>
-    <t>36.95760195405208, -122.05796189188013</t>
-  </si>
-  <si>
-    <t>36.957470446111586, -122.05800736625118</t>
-  </si>
-  <si>
-    <t>36.95742372613069, -122.05857904405882</t>
-  </si>
-  <si>
-    <t>swag</t>
+    <t>36.995809, -122.056861</t>
+  </si>
+  <si>
+    <t>36.995706, -122.056614</t>
+  </si>
+  <si>
+    <t>36.995449, -122.056882</t>
+  </si>
+  <si>
+    <t>36.995201, -122.056898</t>
+  </si>
+  <si>
+    <t>36.99482, -122.057065</t>
+  </si>
+  <si>
+    <t>36.994644, -122.057043</t>
+  </si>
+  <si>
+    <t>36.994558, -122.056877</t>
+  </si>
+  <si>
+    <t>36.994241, -122.057033</t>
+  </si>
+  <si>
+    <t>36.994258, -122.057102</t>
+  </si>
+  <si>
+    <t>36.994301, -122.057365</t>
+  </si>
+  <si>
+    <t>36.994383, -122.057462</t>
+  </si>
+  <si>
+    <t>36.994421, -122.057446</t>
+  </si>
+  <si>
+    <t>36.994725, -122.057317</t>
+  </si>
+  <si>
+    <t>36.994764, -122.057451</t>
+  </si>
+  <si>
+    <t>36.994914, -122.057548</t>
+  </si>
+  <si>
+    <t>36.995372, -122.057413</t>
+  </si>
+  <si>
+    <t>36.995458, -122.057344</t>
+  </si>
+  <si>
+    <t>36.995526, -122.057167</t>
+  </si>
+  <si>
+    <t>36.998063, -122.053519</t>
+  </si>
+  <si>
+    <t>36.998024, -122.053229</t>
+  </si>
+  <si>
+    <t>36.99787, -122.052982</t>
+  </si>
+  <si>
+    <t>36.997703, -122.053127</t>
+  </si>
+  <si>
+    <t>36.99757, -122.053401</t>
+  </si>
+  <si>
+    <t>36.997694, -122.053632</t>
+  </si>
+  <si>
+    <t>36.997973, -122.053691</t>
+  </si>
+  <si>
+    <t>37.002257, -122.053117</t>
+  </si>
+  <si>
+    <t>37.002051, -122.053218</t>
+  </si>
+  <si>
+    <t>37.002039, -122.054522</t>
+  </si>
+  <si>
+    <t>37.002107, -122.055134</t>
+  </si>
+  <si>
+    <t>37.002244, -122.055085</t>
+  </si>
+  <si>
+    <t>37.00227, -122.054586</t>
+  </si>
+  <si>
+    <t>37.002214, -122.055697</t>
+  </si>
+  <si>
+    <t>37.002176, -122.055289</t>
+  </si>
+  <si>
+    <t>37.002159, -122.055348</t>
+  </si>
+  <si>
+    <t>37.002107, -122.055337</t>
+  </si>
+  <si>
+    <t>37.00206, -122.055659</t>
+  </si>
+  <si>
+    <t>37.002266, -122.055273</t>
+  </si>
+  <si>
+    <t>36.996131, -122.054876</t>
+  </si>
+  <si>
+    <t>36.996118, -122.054565</t>
+  </si>
+  <si>
+    <t>36.996066, -122.05457</t>
+  </si>
+  <si>
+    <t>36.996088, -122.054887</t>
+  </si>
+  <si>
+    <t>36.990261, -122.065042</t>
+  </si>
+  <si>
+    <t>36.990248, -122.064677</t>
+  </si>
+  <si>
+    <t>36.990102, -122.064661</t>
+  </si>
+  <si>
+    <t>36.990111, -122.065063</t>
+  </si>
+  <si>
+    <t>37.001512, -122.058202</t>
+  </si>
+  <si>
+    <t>37.001632, -122.058057</t>
+  </si>
+  <si>
+    <t>37.001649, -122.057982</t>
+  </si>
+  <si>
+    <t>37.001482, -122.05788</t>
+  </si>
+  <si>
+    <t>37.001417, -122.05781</t>
+  </si>
+  <si>
+    <t>37.001353, -122.057741</t>
+  </si>
+  <si>
+    <t>37.001306, -122.057805</t>
+  </si>
+  <si>
+    <t>37.001417, -122.057928</t>
+  </si>
+  <si>
+    <t>37.003367, -122.059066</t>
+  </si>
+  <si>
+    <t>37.003384, -122.058738</t>
+  </si>
+  <si>
+    <t>37.003255, -122.058749</t>
+  </si>
+  <si>
+    <t>37.003242, -122.059023</t>
+  </si>
+  <si>
+    <t>37.00332, -122.059082</t>
+  </si>
+  <si>
+    <t>36.95543, -122.058814</t>
+  </si>
+  <si>
+    <t>36.955529, -122.058717</t>
+  </si>
+  <si>
+    <t>36.955542, -122.058615</t>
+  </si>
+  <si>
+    <t>36.955495, -122.05824</t>
+  </si>
+  <si>
+    <t>36.955589, -122.057671</t>
+  </si>
+  <si>
+    <t>36.955096, -122.057671</t>
+  </si>
+  <si>
+    <t>36.954972, -122.057784</t>
+  </si>
+  <si>
+    <t>36.954895, -122.057955</t>
+  </si>
+  <si>
+    <t>36.95489, -122.058325</t>
+  </si>
+  <si>
+    <t>36.955015, -122.058867</t>
+  </si>
+  <si>
+    <t>36.958028, -122.058781</t>
+  </si>
+  <si>
+    <t>36.958118, -122.058637</t>
+  </si>
+  <si>
+    <t>36.95817, -122.057982</t>
+  </si>
+  <si>
+    <t>36.958114, -122.057998</t>
+  </si>
+  <si>
+    <t>36.958105, -122.057902</t>
+  </si>
+  <si>
+    <t>36.95805, -122.057864</t>
+  </si>
+  <si>
+    <t>36.957985, -122.057827</t>
+  </si>
+  <si>
+    <t>36.957942, -122.057751</t>
+  </si>
+  <si>
+    <t>36.95781, -122.057735</t>
+  </si>
+  <si>
+    <t>36.957758, -122.057789</t>
+  </si>
+  <si>
+    <t>36.957715, -122.057794</t>
+  </si>
+  <si>
+    <t>36.957505, -122.057762</t>
+  </si>
+  <si>
+    <t>36.957424, -122.058749</t>
+  </si>
+  <si>
+    <t>36.95796, -122.058803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2020,7 +2114,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2060,67 +2154,67 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2310,47 +2404,50 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.75"/>
-    <col customWidth="1" min="2" max="2" width="48.75"/>
-    <col customWidth="1" min="3" max="3" width="35.38"/>
-    <col customWidth="1" min="4" max="9" width="34.0"/>
-    <col customWidth="1" min="10" max="10" width="32.63"/>
-    <col customWidth="1" min="11" max="11" width="33.38"/>
-    <col customWidth="1" min="12" max="12" width="33.0"/>
-    <col customWidth="1" min="13" max="13" width="35.38"/>
-    <col customWidth="1" min="14" max="14" width="33.5"/>
-    <col customWidth="1" min="15" max="15" width="36.25"/>
-    <col customWidth="1" min="16" max="16" width="34.5"/>
-    <col customWidth="1" min="17" max="17" width="34.25"/>
-    <col customWidth="1" min="18" max="18" width="34.38"/>
-    <col customWidth="1" min="19" max="19" width="40.63"/>
-    <col customWidth="1" min="20" max="20" width="50.38"/>
-    <col customWidth="1" min="21" max="21" width="37.13"/>
-    <col customWidth="1" min="22" max="22" width="36.38"/>
-    <col customWidth="1" min="23" max="23" width="36.88"/>
-    <col customWidth="1" min="24" max="24" width="32.88"/>
-    <col customWidth="1" min="25" max="25" width="20.38"/>
-    <col customWidth="1" min="26" max="26" width="27.88"/>
-    <col customWidth="1" min="27" max="27" width="23.38"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
+    <col min="13" max="13" width="35.42578125" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" customWidth="1"/>
+    <col min="19" max="19" width="40.5703125" customWidth="1"/>
+    <col min="20" max="20" width="50.42578125" customWidth="1"/>
+    <col min="21" max="21" width="37.140625" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" customWidth="1"/>
+    <col min="24" max="24" width="32.85546875" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,3753 +2484,3798 @@
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>101.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="3">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>102.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="3">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="3">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="3">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C9" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="3">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>104.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>105.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="3">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>106.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="3">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>107.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>108.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>109.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>110.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="S13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="T13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="U13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="5">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="5">
+        <v>113</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="5">
         <v>114</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="5">
+        <v>115</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7">
-        <v>112.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="5">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7">
-        <v>113.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7">
-        <v>114.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7">
-        <v>115.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="5">
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7">
-        <v>116.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="5">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7">
-        <v>118.0</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7">
-        <v>119.0</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="6">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="6">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="K27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="6">
+        <v>123</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="E28" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8">
-        <v>121.0</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="6">
+        <v>123</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="8">
-        <v>122.0</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="6">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8">
-        <v>123.0</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="P30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="Q30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="R30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8">
-        <v>123.0</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="S30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="T30" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="U30" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="V30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="W30" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="X30" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="Y30" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="Z30" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K29" s="3" t="s">
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="6">
+        <v>125</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8">
-        <v>124.0</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="N31" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="6">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="L32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="6">
+        <v>127</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Z30" s="9" t="s">
+      <c r="C33" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>125.0</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="6">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8">
-        <v>126.0</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="P34" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8">
-        <v>127.0</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="Q34" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="R34" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="S34" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="6">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="6">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8">
-        <v>128.0</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="6">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="6">
+        <v>132</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="6">
+        <v>133</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8">
-        <v>129.0</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="6">
+        <v>134</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8">
-        <v>130.0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="6">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8">
-        <v>131.0</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="6">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8">
-        <v>132.0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8">
-        <v>133.0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="6">
+        <v>137</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8">
-        <v>134.0</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="N43" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="O43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="8">
-        <v>135.0</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="P43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="Q43" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="R43" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="S43" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="8">
-        <v>136.0</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="T43" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="U43" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="V43" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="W43" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="X43" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H42" s="3" t="s">
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="8">
+        <v>138</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="8">
-        <v>137.0</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="M45" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="N45" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="V43" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="W43" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="X43" s="9" t="s">
+      <c r="Q45" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="10">
-        <v>138.0</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="R45" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="S45" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="H46" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="8">
+        <v>140</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="8">
+        <v>141</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="H48" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="8">
+        <v>143</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="8">
+        <v>144</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="10">
-        <v>140.0</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="8">
+        <v>145</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="8">
+        <v>146</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="10">
-        <v>141.0</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="10">
-        <v>143.0</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="L52" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="M52" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="N52" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="O52" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="8">
+        <v>147</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="10">
-        <v>144.0</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="8">
+        <v>147</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="10">
-        <v>145.0</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="10">
-        <v>146.0</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" s="8">
+        <v>149</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M55" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="10">
-        <v>147.0</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="10">
-        <v>147.0</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J57" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="10">
-        <v>149.0</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="K57" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="L57" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="10">
+        <v>151</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="C59" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="10">
+        <v>156</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="C60" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" s="10">
+        <v>157</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="D61" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" s="10">
+        <v>158</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="D62" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" s="10">
+        <v>159</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" s="10">
+        <v>160</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="10">
+        <v>161</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12">
-        <v>151.0</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="10">
+        <v>162</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="10">
+        <v>163</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
+      <c r="C67" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="10">
+        <v>164</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12">
-        <v>156.0</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="I68" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="J68" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="K68" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="L68" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="12">
-        <v>157.0</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="M68" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="N68" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="O68" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="P68" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="Q68" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="12">
-        <v>158.0</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="R68" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="10">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="12">
-        <v>159.0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="11">
+        <v>166</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="C70" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="11">
+        <v>167</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="11">
+        <v>168</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="12">
-        <v>160.0</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="12">
-        <v>161.0</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="11">
+        <v>169</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="12">
-        <v>162.0</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="11">
+        <v>170</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="12">
-        <v>163.0</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="11">
+        <v>171</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="12">
-        <v>164.0</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="11">
+        <v>201</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="11">
+        <v>202</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="11">
+        <v>203</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="11">
+        <v>204</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="12">
-        <v>165.0</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="11">
+        <v>205</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="13">
-        <v>166.0</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="11">
+        <v>206</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="13">
-        <v>167.0</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="11">
+        <v>207</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="13">
-        <v>168.0</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="11">
+        <v>301</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="13">
-        <v>169.0</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="13">
-        <v>170.0</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="13">
-        <v>171.0</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="13">
-        <v>201.0</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="13">
-        <v>202.0</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="13">
-        <v>203.0</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="13">
-        <v>204.0</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="13">
-        <v>205.0</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="13">
-        <v>206.0</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="13">
-        <v>207.0</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="13">
-        <v>301.0</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="13">
-        <v>302.0</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="14"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="14"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="14"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="14"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="14"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="14"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="14"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="14"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="14"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="14"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="14"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="14"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="14"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="14"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="14"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="14"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="14"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="14"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="14"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="14"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="14"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="14"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="14"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="14"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="14"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="14"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="14"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="14"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="s">
+      <c r="C83" s="13" t="s">
         <v>657</v>
       </c>
+      <c r="D83" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="11">
+        <v>302</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="12"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="12"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="12"/>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="12"/>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="12"/>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="12"/>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="12"/>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="12"/>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="12"/>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="12"/>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="12"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="12"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="12"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="12"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="12"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="12"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="12"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="12"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="12"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="12"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="12"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="12"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="12"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>